--- a/Plasma - Files for release/Instructions/Bill of materials.xlsx
+++ b/Plasma - Files for release/Instructions/Bill of materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihael\Desktop\Work\Plasma - Files for release\Instructions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mihael\Documents\GitHub\GoodEnoughCNC-PlasmaCutter\Plasma - Files for release\Instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="108">
   <si>
     <t>ITEM NO.</t>
   </si>
@@ -38,30 +38,15 @@
     <t>Beam Short Y1</t>
   </si>
   <si>
-    <t>SHS 100x100x3x130</t>
-  </si>
-  <si>
     <t>NEMA 23 Stepper motor</t>
   </si>
   <si>
-    <t>Timing pulley</t>
-  </si>
-  <si>
-    <t>Flanged timing pulley</t>
-  </si>
-  <si>
     <t>Bearing F608Z</t>
   </si>
   <si>
-    <t>Belt Ball Bearing fi22</t>
-  </si>
-  <si>
     <t>Bearing 608ZZ</t>
   </si>
   <si>
-    <t>Ball Bearing fi22</t>
-  </si>
-  <si>
     <t>DIN 933 M8x120 Grade A 8.8</t>
   </si>
   <si>
@@ -122,9 +107,6 @@
     <t>Z mount plate</t>
   </si>
   <si>
-    <t>120x130</t>
-  </si>
-  <si>
     <t>Z mount plate - Bottom</t>
   </si>
   <si>
@@ -185,12 +167,6 @@
     <t>M6 2x Eye70 mm</t>
   </si>
   <si>
-    <t>Linear guide – big</t>
-  </si>
-  <si>
-    <t>Linear guide – small</t>
-  </si>
-  <si>
     <t>Base plate</t>
   </si>
   <si>
@@ -215,12 +191,6 @@
     <t>pusa</t>
   </si>
   <si>
-    <t>Coupler 5 to 8 mm</t>
-  </si>
-  <si>
-    <t>Flexible shaft coupler</t>
-  </si>
-  <si>
     <t>Hinge 40x40</t>
   </si>
   <si>
@@ -290,9 +260,6 @@
     <t>Bracket for tighteners - left</t>
   </si>
   <si>
-    <t>Micro End switch</t>
-  </si>
-  <si>
     <t>M8 Rod - 120 mm</t>
   </si>
   <si>
@@ -312,13 +279,82 @@
   </si>
   <si>
     <t>STEEL BEAMS, PLATES</t>
+  </si>
+  <si>
+    <t>GT3 Timing pulley</t>
+  </si>
+  <si>
+    <t>16 teeth, 6mm shaft hole</t>
+  </si>
+  <si>
+    <t>Flexible Coupler 5 to 8 mm</t>
+  </si>
+  <si>
+    <t>http://www.accuride-europe.com/slides/woodworking/2421</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/83/Flexible+Coupling+5mm+Shaft+to+Screws%20or%20similar%20or%20</t>
+  </si>
+  <si>
+    <t>Linear guide – 400mm</t>
+  </si>
+  <si>
+    <t>Linear guide – 200mm</t>
+  </si>
+  <si>
+    <t>Micro Endstop switch</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/141/Endstop+Subminiature+Switch+SS-5GL</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/206/Nema17+48mm+Stepper+Motor</t>
+  </si>
+  <si>
+    <t>http://www.robotdigg.com/product/205/Nema23+76mm+stepper+motor</t>
+  </si>
+  <si>
+    <t>Plate 430x130mm, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Beam 100x100mm, 130mm long, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Beam 40x40mm, 1200mm long, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>L - profile 40x40mm, 80mm long, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Plate 100x80mm, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Plate 85x50mm, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Plate 280x100mm, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>L - profile 25x25mm, 60mm long, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Plate 130x120mm, 3mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>L - profile 30x30mm, 10mm long, 2mm thick - Construction steel (stainless steel)</t>
+  </si>
+  <si>
+    <t>Ball Bearing outer diam. 22mm</t>
+  </si>
+  <si>
+    <t>Belt Ball Bearing, outer diam. 22m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +374,15 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -467,10 +512,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -518,8 +564,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,15 +851,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" customWidth="1"/>
     <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="113.77734375" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
@@ -817,7 +868,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -827,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -845,9 +896,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
@@ -864,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -879,9 +932,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
@@ -895,9 +950,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
@@ -911,9 +968,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
@@ -927,9 +986,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
@@ -943,9 +1004,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
@@ -959,9 +1022,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -975,9 +1040,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
@@ -991,9 +1058,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
@@ -1007,9 +1076,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
@@ -1023,9 +1094,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
@@ -1039,10 +1112,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1057,10 +1130,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1075,11 +1148,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="D17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="12"/>
@@ -1088,7 +1163,7 @@
     </row>
     <row r="18" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1103,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
@@ -1121,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4">
         <v>17</v>
@@ -1139,10 +1214,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -1157,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5">
         <v>50</v>
@@ -1175,10 +1250,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5">
         <v>36</v>
@@ -1193,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D24" s="5">
         <v>23</v>
@@ -1211,10 +1286,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5">
         <v>12</v>
@@ -1229,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5">
         <v>16</v>
@@ -1247,10 +1322,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27" s="5">
         <v>13</v>
@@ -1265,10 +1340,10 @@
         <v>9</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
@@ -1283,10 +1358,10 @@
         <v>10</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D29" s="5">
         <v>6</v>
@@ -1301,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5">
@@ -1317,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5">
@@ -1333,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
@@ -1349,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5">
@@ -1365,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5">
@@ -1381,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5">
@@ -1397,10 +1472,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5">
         <v>4</v>
@@ -1415,10 +1490,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5">
         <v>20</v>
@@ -1433,7 +1508,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5">
@@ -1449,10 +1524,10 @@
         <v>20</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D39" s="5">
         <v>12</v>
@@ -1467,10 +1542,10 @@
         <v>21</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D40" s="5">
         <v>2</v>
@@ -1485,10 +1560,10 @@
         <v>22</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5">
         <v>2</v>
@@ -1503,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5">
@@ -1519,10 +1594,10 @@
         <v>24</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="5">
         <v>16</v>
@@ -1537,10 +1612,10 @@
         <v>25</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D44" s="5">
         <v>25</v>
@@ -1555,10 +1630,10 @@
         <v>26</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D45" s="5">
         <v>37</v>
@@ -1573,10 +1648,10 @@
         <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D46" s="5">
         <v>20</v>
@@ -1591,10 +1666,10 @@
         <v>28</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5">
         <v>79</v>
@@ -1609,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5">
@@ -1622,7 +1697,7 @@
     </row>
     <row r="49" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -1637,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -1655,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4">
@@ -1671,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4">
@@ -1687,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4">
@@ -1703,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4">
@@ -1719,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4">
@@ -1735,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4">
@@ -1748,7 +1823,7 @@
     </row>
     <row r="57" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -1763,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1</v>
@@ -1781,10 +1856,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="D59" s="4">
         <v>18</v>
@@ -1799,10 +1874,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="D60" s="4">
         <v>12</v>
@@ -1817,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>64</v>
+        <v>87</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1835,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5">
@@ -1851,9 +1926,11 @@
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D63" s="5">
         <v>2</v>
       </c>
@@ -1867,9 +1944,11 @@
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D64" s="5">
         <v>2</v>
       </c>
@@ -1883,10 +1962,10 @@
         <v>7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
@@ -1901,9 +1980,11 @@
         <v>8</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="D66" s="5">
         <v>9</v>
       </c>
@@ -1917,9 +1998,11 @@
         <v>9</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
@@ -1933,9 +2016,11 @@
         <v>10</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D68" s="4">
         <v>3</v>
       </c>
@@ -1949,10 +2034,10 @@
         <v>11</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="D69" s="4">
         <v>3</v>
@@ -1967,7 +2052,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4">
@@ -1983,10 +2068,10 @@
         <v>13</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
@@ -2001,7 +2086,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6">
@@ -2024,7 +2109,14 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A57:D57"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C64" r:id="rId1"/>
+    <hyperlink ref="C61" r:id="rId2"/>
+    <hyperlink ref="C63" r:id="rId3"/>
+    <hyperlink ref="C66" r:id="rId4"/>
+    <hyperlink ref="C67" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="15" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="15" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>